--- a/database/respostas_perguntas.xlsx
+++ b/database/respostas_perguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\ChatbotSemeq\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02A05F6-8D8F-4248-966F-2A10EFD05F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A82E58-D397-4CC4-8E2E-0394620709DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EDDDBA10-48AB-450E-91D0-04EB42F83D66}"/>
   </bookViews>
@@ -592,7 +592,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
